--- a/data_excel/hyundai/hyundai.xlsx
+++ b/data_excel/hyundai/hyundai.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hyundai" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,37 +422,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>CANT.</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>CODIGO</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>PRODUCTO</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>VENTAS</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>PRECIO</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>P.COMP</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>P.COSTO</t>
         </is>
@@ -472,120 +455,115 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v/>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bomba De Agua Sumergible 1/4 Hp Hyundai Hywp250</t>
+          <t>Generador Planta De Luz Hyundai 3,000w 110/220v 7.5hp</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="E2" t="n">
-        <v>2499</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v/>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bomba De Agua Sumergible Agrícola Hyundai 1 Hp 110v 92mts</t>
+          <t>Motosierra Hyundai Barra 20 2.7 Hp Paso .325 Turbo600</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E3" t="n">
-        <v>3290</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Turbo 600</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bomba De Agua Sumergible Agrícola Hyundai 1/2 Hp 110v 70mts</t>
+          <t xml:space="preserve">     Motosierra Hyundai Barra 20 2.7 Hp Paso .325 Turbo600</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E4" t="n">
-        <v>2790</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HYWSC750</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v/>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bomba De Agua Sumergible Hyundai 12000 L/hr 750 W</t>
+          <t>Hidrolavadora Electrica 1200w 100bar Hyp1400 Hyundai Color Azul</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E5" t="n">
-        <v>1490</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1480</v>
-      </c>
-      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HYWSC750</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bomba Presurizadora Circulante 110v 12mts Hybc341 Hyundai</t>
+          <t>Bomba De Agua Sumergible Hyundai 12000 L/hr 750 W</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1490</v>
       </c>
       <c r="E6" t="n">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,22 +571,21 @@
       <c r="A7" t="n">
         <v>0</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v/>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bomba Presurizadora Electrica Hyundai 0.20hp/150w Hybc3412</t>
+          <t>Hidrolavadora Hyundai Hyp1400 De 1200w Con 1400psi</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E7" t="n">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,22 +593,21 @@
       <c r="A8" t="n">
         <v>0</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v/>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bomba Sumergible Hyundai 1.5 Hp Bifásica Pozo 4 Hywp1500g</t>
+          <t>Motoperforadora Ahoyadora Hyundai 100x20cm Motor 2.5hp/52cc</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6290</v>
       </c>
       <c r="E8" t="n">
-        <v>3890</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -639,22 +615,21 @@
       <c r="A9" t="n">
         <v>0</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v/>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fumigadora Electrica Hyundai 20l - Hyd2020e Hyundai</t>
+          <t>Motosierra Hyundai Turbo455</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2090</v>
       </c>
       <c r="E9" t="n">
-        <v>2370</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -662,45 +637,43 @@
       <c r="A10" t="n">
         <v>0</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v/>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fumigadora Electrica Inalambrico 20 Litros Hyd2020e Hyundai Color Azul</t>
+          <t xml:space="preserve">     Motosierra Hyundai Turbo455</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2090</v>
       </c>
       <c r="E10" t="n">
-        <v>2370</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fumigadora Hyundai 4 Tiempos Doble Varilla 25 Lts - Turbo768</t>
+          <t>Fumigadora Sanitizadora Motor Honda Hyundai 25 Lts Hyd4035t</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9950</v>
       </c>
       <c r="E11" t="n">
-        <v>5990</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -710,24 +683,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hyd4514</t>
+          <t>HYD4035T</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fumigadora Motorizada Hyundai Hyd4514 14 Lts</t>
+          <t xml:space="preserve">     Fumigadora Sanitizadora Motor Honda Hyundai 25 Lts Hyd4035t</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>9950</v>
       </c>
       <c r="E12" t="n">
-        <v>6150</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3382</v>
-      </c>
-      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -735,49 +705,45 @@
       <c r="A13" t="n">
         <v>1</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>HYD4035T</t>
-        </is>
+      <c r="B13" t="n">
+        <v/>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fumigadora Sanitizadora Motor Honda Hyundai 25 Lts Hyd4035t</t>
+          <t>Fumigadora Motorizada Hyundai Hyd4514 14 Lts</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>6150</v>
       </c>
       <c r="E13" t="n">
-        <v>9950</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>9319</v>
-      </c>
-      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hyd4514</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Generador Hyundai Portatil 2.0-2.2 Kw C/motor 6.5 Hp Hhy2200</t>
+          <t xml:space="preserve">     Fumigadora Motorizada Hyundai Hyd4514 14 Lts</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6150</v>
       </c>
       <c r="E14" t="n">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -785,45 +751,45 @@
       <c r="A15" t="n">
         <v>0</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v/>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>Generador Planta De Luz Hyundai 2,200w 6.5hp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="E15" t="n">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HHY1000</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Generador Planta De Luz Hyundai 3,000w 110/220v 7.5hp</t>
+          <t>Generador Portátil A Gasolina Hyundai Hhy1000 2 Hp 3600 Rpm</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4030</v>
       </c>
       <c r="E16" t="n">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,151 +797,133 @@
       <c r="A17" t="n">
         <v>0</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v/>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Generador Planta De Luz Portatil A Gasolina Bifasico Hyundai</t>
+          <t>Bomba De Agua Sumergible Agrícola Hyundai 1 Hp 110v 92mts</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3290</v>
       </c>
       <c r="E17" t="n">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>HHY1000</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v/>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Generador Portátil A Gasolina Hyundai Hhy1000 2 Hp 3600 Rpm</t>
+          <t>Bomba De Agua Sumergible Agrícola Hyundai 1/2 Hp 110v 70mts</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2790</v>
       </c>
       <c r="E18" t="n">
-        <v>4030</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2573.99</v>
-      </c>
-      <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HHY1000</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v/>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Generador Portátil Hyundai Hhy1000 1000w Monofásico 110v A Gasolina</t>
+          <t>Bomba Sumergible Hyundai 1.5 Hp Bifásica Pozo 4 Hywp1500g</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3890</v>
       </c>
       <c r="E19" t="n">
-        <v>4030</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2573.99</v>
-      </c>
-      <c r="G19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v/>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hidrolavadora Electrica 1200w 100bar Hyp1400 Hyundai Color Azul</t>
+          <t>Bomba De Agua Sumergible 1/4 Hp Hyundai Hywp250</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2499</v>
       </c>
       <c r="E20" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="B21" t="n">
+        <v/>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hidrolavadora Hyundai Hyp1400 De 1200w Con 1400psi</t>
+          <t>Planta Soldar Hyundai Dual 110v/100a 220v/120a Supermini-120</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HYW4325</t>
+          <t>SUPERMINI-120</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Motobomba Autocebante Portátil Hyundai 2hp 1x1 Hyw4325</t>
+          <t xml:space="preserve">     Planta Soldar Hyundai Dual 110v/100a 220v/120a Supermini-120</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E22" t="n">
-        <v>3099</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,99 +931,91 @@
       <c r="A23" t="n">
         <v>0</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v/>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Motoperforadora Ahoyadora Hyundai 100x20cm Motor 2.5hp/52cc</t>
+          <t>Bomba Presurizadora Electrica Hyundai 0.20hp/150w Hybc3412</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="E23" t="n">
-        <v>6290</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MINI-120</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Motoperforadora Hhp520xt Motor 2.5hp/52cc Hyundai</t>
+          <t>Planta De Soldar Miniinverter Hyundai Dual 110/220v Mini-120 Color Azul Frecuencia 60 Hz</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="E24" t="n">
-        <v>5690</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HYGE670</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v/>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Motor A Gasolina 4 Tiempos 6.7 Hp C/cuñero Hyge670 Hyundai</t>
+          <t>Soldadora Inverter Hyundai Mini-120 Azul 60hz 110v/220v</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="E25" t="n">
-        <v>4350</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3375</v>
-      </c>
-      <c r="G25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Turbo 600</t>
+          <t>MINI-120</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Motosierra Hyundai Barra 20 2.7 Hp Paso .325 Turbo600</t>
+          <t xml:space="preserve">     Soldadora Inverter Hyundai Mini-120 Azul 60hz 110v/220v</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="E26" t="n">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1957</v>
-      </c>
-      <c r="G26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1083,130 +1023,113 @@
       <c r="A27" t="n">
         <v>0</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v/>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Motosierra Hyundai Turbo455</t>
+          <t>Fumigadora Hyundai 4 Tiempos Doble Varilla 25 Lts - Turbo768</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>5990</v>
       </c>
       <c r="E27" t="n">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MMA130</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v/>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Planta De Soldar Inverter Hyundai Mma-130 110v/80a 220v/120a Color Azul Frecuencia 60 Hz</t>
+          <t xml:space="preserve">     Fumigadora Hyundai 4 Tiempos Doble Varilla 25 Lts - Turbo768</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>5990</v>
       </c>
       <c r="E28" t="n">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2281.59</v>
-      </c>
-      <c r="G28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MINI-120</t>
+          <t>HYGE670</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Planta De Soldar Miniinverter Hyundai Dual 110/220v Mini-120 Color Azul Frecuencia 60 Hz</t>
+          <t>Motor A Gasolina 4 Tiempos 6.7 Hp C/cuñero Hyge670 Hyundai</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4350</v>
       </c>
       <c r="E29" t="n">
-        <v>2180</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1299</v>
-      </c>
-      <c r="G29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SUPERMINI-120</t>
+          <t>HYW4325</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Planta Soldar Dual 110v/100a 60 Hz Supermini-120 Hyundai Color Azul</t>
+          <t>Motobomba Autocebante Portátil Hyundai 2hp 1x1 Hyw4325</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3099</v>
       </c>
       <c r="E30" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2029</v>
-      </c>
-      <c r="G30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SUPERMINI-120</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v/>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Planta Soldar Hyundai Dual 110v/100a 220v/120a Supermini-120</t>
+          <t>Soldadora Inverter Hyundai Hhma165d 60hz 110v/220v</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3199</v>
       </c>
       <c r="E31" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2029</v>
-      </c>
-      <c r="G31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1221,19 +1144,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Soldadora Inverter Hyundai Hhma165d 60hz 110v/220v</t>
+          <t xml:space="preserve">     Soldadora Inverter Hyundai Hhma165d 60hz 110v/220v</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3199</v>
       </c>
       <c r="E32" t="n">
-        <v>3199</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1790</v>
-      </c>
-      <c r="G32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,42 +1172,36 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3199</v>
       </c>
       <c r="E33" t="n">
-        <v>3199</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1790</v>
-      </c>
-      <c r="G33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MINI-120</t>
+          <t>MMA130</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Soldadora Inverter Hyundai Mini-120 Azul 60hz 110v/220v</t>
+          <t>Planta De Soldar Inverter Hyundai Mma-130 110v/80a 220v/120a Color Azul Frecuencia 60 Hz</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E34" t="n">
-        <v>2180</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1299</v>
-      </c>
-      <c r="G34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,26 +1209,247 @@
       <c r="A35" t="n">
         <v>4</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v/>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Soldadora Inverter Hyundai Mma130 60hz 110v/220v</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>MMA130</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Soldadora Inverter Hyundai Mma130 60hz 110v/220v</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     Soldadora Inverter Hyundai Mma130 60hz 110v/220v</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>2900</v>
       </c>
-      <c r="F35" t="n">
-        <v>2281.59</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n">
+        <v/>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fumigadora Electrica Hyundai 20l - Hyd2020e Hyundai</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2370</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v/>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     Fumigadora Electrica Hyundai 20l - Hyd2020e Hyundai</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2370</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v/>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Generador Hyundai Portatil 2.0-2.2 Kw C/motor 6.5 Hp Hhy2200</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>6300</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v/>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fumigadora Electrica Inalambrico 20 Litros Hyd2020e Hyundai Color Azul</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2370</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v/>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Generador Planta De Luz Portatil A Gasolina Bifasico Hyundai</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>7600</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>HHY1000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Generador Portátil Hyundai Hhy1000 1000w Monofásico 110v A Gasolina</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4030</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v/>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Bomba Presurizadora Circulante 110v 12mts Hybc341 Hyundai</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1240</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="n">
+        <v/>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Motoperforadora Hhp520xt Motor 2.5hp/52cc Hyundai </t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5690</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SUPERMINI-120</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Planta Soldar Dual 110v/100a 60 Hz Supermini-120 Hyundai Color Azul</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data_excel/hyundai/hyundai.xlsx
+++ b/data_excel/hyundai/hyundai.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="hyundai" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,32 +434,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CANT.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CODIGO</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>PRODUCTO</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PRECIO</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>P.COMP</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>P.COSTO</t>
         </is>
@@ -457,9 +469,7 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v/>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Generador Planta De Luz Hyundai 3,000w 110/220v 7.5hp</t>
@@ -479,9 +489,7 @@
       <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
-        <v/>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>Motosierra Hyundai Barra 20 2.7 Hp Paso .325 Turbo600</t>
@@ -514,8 +522,10 @@
       <c r="D4" t="n">
         <v>2900</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -525,9 +535,7 @@
       <c r="A5" t="n">
         <v>0</v>
       </c>
-      <c r="B5" t="n">
-        <v/>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>Hidrolavadora Electrica 1200w 100bar Hyp1400 Hyundai Color Azul</t>
@@ -560,8 +568,10 @@
       <c r="D6" t="n">
         <v>1490</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -571,9 +581,7 @@
       <c r="A7" t="n">
         <v>0</v>
       </c>
-      <c r="B7" t="n">
-        <v/>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>Hidrolavadora Hyundai Hyp1400 De 1200w Con 1400psi</t>
@@ -593,9 +601,7 @@
       <c r="A8" t="n">
         <v>0</v>
       </c>
-      <c r="B8" t="n">
-        <v/>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>Motoperforadora Ahoyadora Hyundai 100x20cm Motor 2.5hp/52cc</t>
@@ -615,9 +621,7 @@
       <c r="A9" t="n">
         <v>0</v>
       </c>
-      <c r="B9" t="n">
-        <v/>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>Motosierra Hyundai Turbo455</t>
@@ -637,9 +641,7 @@
       <c r="A10" t="n">
         <v>0</v>
       </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">     Motosierra Hyundai Turbo455</t>
@@ -659,9 +661,7 @@
       <c r="A11" t="n">
         <v>1</v>
       </c>
-      <c r="B11" t="n">
-        <v/>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>Fumigadora Sanitizadora Motor Honda Hyundai 25 Lts Hyd4035t</t>
@@ -694,8 +694,10 @@
       <c r="D12" t="n">
         <v>9950</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -705,9 +707,7 @@
       <c r="A13" t="n">
         <v>1</v>
       </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>Fumigadora Motorizada Hyundai Hyd4514 14 Lts</t>
@@ -740,8 +740,10 @@
       <c r="D14" t="n">
         <v>6150</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -751,9 +753,7 @@
       <c r="A15" t="n">
         <v>0</v>
       </c>
-      <c r="B15" t="n">
-        <v/>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>Generador Planta De Luz Hyundai 2,200w 6.5hp</t>
@@ -786,8 +786,10 @@
       <c r="D16" t="n">
         <v>4030</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -797,9 +799,7 @@
       <c r="A17" t="n">
         <v>0</v>
       </c>
-      <c r="B17" t="n">
-        <v/>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>Bomba De Agua Sumergible Agrícola Hyundai 1 Hp 110v 92mts</t>
@@ -819,9 +819,7 @@
       <c r="A18" t="n">
         <v>0</v>
       </c>
-      <c r="B18" t="n">
-        <v/>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>Bomba De Agua Sumergible Agrícola Hyundai 1/2 Hp 110v 70mts</t>
@@ -841,9 +839,7 @@
       <c r="A19" t="n">
         <v>0</v>
       </c>
-      <c r="B19" t="n">
-        <v/>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>Bomba Sumergible Hyundai 1.5 Hp Bifásica Pozo 4 Hywp1500g</t>
@@ -863,9 +859,7 @@
       <c r="A20" t="n">
         <v>2</v>
       </c>
-      <c r="B20" t="n">
-        <v/>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>Bomba De Agua Sumergible 1/4 Hp Hyundai Hywp250</t>
@@ -885,9 +879,7 @@
       <c r="A21" t="n">
         <v>9</v>
       </c>
-      <c r="B21" t="n">
-        <v/>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>Planta Soldar Hyundai Dual 110v/100a 220v/120a Supermini-120</t>
@@ -920,8 +912,10 @@
       <c r="D22" t="n">
         <v>2500</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -931,9 +925,7 @@
       <c r="A23" t="n">
         <v>0</v>
       </c>
-      <c r="B23" t="n">
-        <v/>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>Bomba Presurizadora Electrica Hyundai 0.20hp/150w Hybc3412</t>
@@ -966,8 +958,10 @@
       <c r="D24" t="n">
         <v>2180</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -977,9 +971,7 @@
       <c r="A25" t="n">
         <v>3</v>
       </c>
-      <c r="B25" t="n">
-        <v/>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>Soldadora Inverter Hyundai Mini-120 Azul 60hz 110v/220v</t>
@@ -1012,8 +1004,10 @@
       <c r="D26" t="n">
         <v>2180</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1023,9 +1017,7 @@
       <c r="A27" t="n">
         <v>0</v>
       </c>
-      <c r="B27" t="n">
-        <v/>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>Fumigadora Hyundai 4 Tiempos Doble Varilla 25 Lts - Turbo768</t>
@@ -1045,9 +1037,7 @@
       <c r="A28" t="n">
         <v>0</v>
       </c>
-      <c r="B28" t="n">
-        <v/>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">     Fumigadora Hyundai 4 Tiempos Doble Varilla 25 Lts - Turbo768</t>
@@ -1080,8 +1070,10 @@
       <c r="D29" t="n">
         <v>4350</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1104,8 +1096,10 @@
       <c r="D30" t="n">
         <v>3099</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1115,9 +1109,7 @@
       <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B31" t="n">
-        <v/>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>Soldadora Inverter Hyundai Hhma165d 60hz 110v/220v</t>
@@ -1150,8 +1142,10 @@
       <c r="D32" t="n">
         <v>3199</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1174,8 +1168,10 @@
       <c r="D33" t="n">
         <v>3199</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1198,8 +1194,10 @@
       <c r="D34" t="n">
         <v>2900</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1209,9 +1207,7 @@
       <c r="A35" t="n">
         <v>4</v>
       </c>
-      <c r="B35" t="n">
-        <v/>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>Soldadora Inverter Hyundai Mma130 60hz 110v/220v</t>
@@ -1244,8 +1240,10 @@
       <c r="D36" t="n">
         <v>2900</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1255,9 +1253,7 @@
       <c r="A37" t="n">
         <v>0</v>
       </c>
-      <c r="B37" t="n">
-        <v/>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>Fumigadora Electrica Hyundai 20l - Hyd2020e Hyundai</t>
@@ -1277,9 +1273,7 @@
       <c r="A38" t="n">
         <v>0</v>
       </c>
-      <c r="B38" t="n">
-        <v/>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">     Fumigadora Electrica Hyundai 20l - Hyd2020e Hyundai</t>
@@ -1299,9 +1293,7 @@
       <c r="A39" t="n">
         <v>0</v>
       </c>
-      <c r="B39" t="n">
-        <v/>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>Generador Hyundai Portatil 2.0-2.2 Kw C/motor 6.5 Hp Hhy2200</t>
@@ -1321,9 +1313,7 @@
       <c r="A40" t="n">
         <v>0</v>
       </c>
-      <c r="B40" t="n">
-        <v/>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>Fumigadora Electrica Inalambrico 20 Litros Hyd2020e Hyundai Color Azul</t>
@@ -1343,9 +1333,7 @@
       <c r="A41" t="n">
         <v>0</v>
       </c>
-      <c r="B41" t="n">
-        <v/>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>Generador Planta De Luz Portatil A Gasolina Bifasico Hyundai</t>
@@ -1378,8 +1366,10 @@
       <c r="D42" t="n">
         <v>4030</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1389,9 +1379,7 @@
       <c r="A43" t="n">
         <v>0</v>
       </c>
-      <c r="B43" t="n">
-        <v/>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>Bomba Presurizadora Circulante 110v 12mts Hybc341 Hyundai</t>
@@ -1411,9 +1399,7 @@
       <c r="A44" t="n">
         <v>0</v>
       </c>
-      <c r="B44" t="n">
-        <v/>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">Motoperforadora Hhp520xt Motor 2.5hp/52cc Hyundai </t>
@@ -1446,8 +1432,10 @@
       <c r="D45" t="n">
         <v>2500</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F45" t="n">
         <v>0</v>
